--- a/data/trans_orig/P33B4_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>30807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21145</v>
+        <v>21616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44439</v>
+        <v>43312</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05594961263569474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03840233641917352</v>
+        <v>0.03925831243429855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0807076103791633</v>
+        <v>0.07866063184752758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -762,19 +762,19 @@
         <v>43498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33221</v>
+        <v>34415</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55638</v>
+        <v>56668</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08905953088361578</v>
+        <v>0.08905953088361576</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06801934792656815</v>
+        <v>0.07046358718869085</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1139161978581376</v>
+        <v>0.116025969371717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -783,19 +783,19 @@
         <v>74305</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60804</v>
+        <v>59945</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91538</v>
+        <v>91628</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.071513415123261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05852045548284623</v>
+        <v>0.05769319701086803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08809981415181085</v>
+        <v>0.08818585791698694</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>27070</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18270</v>
+        <v>18908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39376</v>
+        <v>38922</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04916205636014957</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0331807858529363</v>
+        <v>0.0343396886092911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07151321184329236</v>
+        <v>0.07068770408156087</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -833,19 +833,19 @@
         <v>44789</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34091</v>
+        <v>34868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58299</v>
+        <v>58964</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09170435766393327</v>
+        <v>0.09170435766393324</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06980010726187245</v>
+        <v>0.07139028645325202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1193639994939211</v>
+        <v>0.1207255671417719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -854,19 +854,19 @@
         <v>71859</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57213</v>
+        <v>57936</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87736</v>
+        <v>88320</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06915968878861972</v>
+        <v>0.06915968878861971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05506365628140148</v>
+        <v>0.05575992704448616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08444016549996172</v>
+        <v>0.08500258633424121</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>96606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79317</v>
+        <v>79705</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117089</v>
+        <v>115806</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1754506055353052</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1440508476211782</v>
+        <v>0.1447557736630727</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2126497216814391</v>
+        <v>0.210320678000128</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>149</v>
@@ -904,19 +904,19 @@
         <v>93884</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79095</v>
+        <v>78993</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>108678</v>
+        <v>109797</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1922224295993743</v>
+        <v>0.1922224295993742</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1619432851387085</v>
+        <v>0.1617354059143102</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.222513208726437</v>
+        <v>0.2248046181398001</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>252</v>
@@ -925,19 +925,19 @@
         <v>190490</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>167902</v>
+        <v>169019</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>214707</v>
+        <v>214227</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1833344473235818</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.161594896102294</v>
+        <v>0.162669843237785</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2066423700216453</v>
+        <v>0.2061797143469699</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>396135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>373800</v>
+        <v>373868</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>417812</v>
+        <v>416223</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7194377254688505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6788738414109021</v>
+        <v>0.6789972711975006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7588052407652759</v>
+        <v>0.7559192694568074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>417</v>
@@ -975,19 +975,19 @@
         <v>306240</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>287550</v>
+        <v>289030</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>325780</v>
+        <v>324930</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6270136818530768</v>
+        <v>0.6270136818530766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5887455215031093</v>
+        <v>0.5917761246398675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6670205448265248</v>
+        <v>0.6652807908904083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>807</v>
@@ -996,19 +996,19 @@
         <v>702376</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>673259</v>
+        <v>673520</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>730300</v>
+        <v>729555</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6759924487645376</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6479691376124497</v>
+        <v>0.6482204396572898</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7028673955249807</v>
+        <v>0.7021503564627485</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>27061</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18250</v>
+        <v>18140</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40362</v>
+        <v>38749</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05611719476718391</v>
+        <v>0.0561171947671839</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03784462233256342</v>
+        <v>0.03761836400531213</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08369998094579671</v>
+        <v>0.08035381170262712</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>55</v>
@@ -1121,19 +1121,19 @@
         <v>39952</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29735</v>
+        <v>30116</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>50404</v>
+        <v>51620</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09441836690649773</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07027164980195635</v>
+        <v>0.071172007116164</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1191191581122329</v>
+        <v>0.1219918343297719</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>84</v>
@@ -1142,19 +1142,19 @@
         <v>67014</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>53530</v>
+        <v>53515</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>81927</v>
+        <v>84556</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07401807197726055</v>
+        <v>0.07401807197726057</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05912567138802278</v>
+        <v>0.05910879213828261</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09049022040722188</v>
+        <v>0.09339368407104898</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>31133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22145</v>
+        <v>21858</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44070</v>
+        <v>43288</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0645618669781696</v>
+        <v>0.06456186697816958</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04592191599716258</v>
+        <v>0.04532746229020165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09138886740521578</v>
+        <v>0.08976795426190458</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1192,19 +1192,19 @@
         <v>44179</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33744</v>
+        <v>34680</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55722</v>
+        <v>56764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1044076097336623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07974578246358152</v>
+        <v>0.08195723371805212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1316862373311688</v>
+        <v>0.1341483423312032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1213,19 +1213,19 @@
         <v>75313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61089</v>
+        <v>60697</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91917</v>
+        <v>91432</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0831846325117143</v>
+        <v>0.08318463251171432</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06747402262488829</v>
+        <v>0.06704137155192066</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1015250829077566</v>
+        <v>0.1009889099031846</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>96507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79388</v>
+        <v>78950</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113159</v>
+        <v>114110</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2001294715624995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1646294423280973</v>
+        <v>0.1637209882411251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2346611974377656</v>
+        <v>0.2366323926726126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -1263,19 +1263,19 @@
         <v>92717</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80085</v>
+        <v>80095</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107983</v>
+        <v>107350</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2191157964381019</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.189263375691198</v>
+        <v>0.1892868251610539</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2551926984476107</v>
+        <v>0.2536975605038323</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>244</v>
@@ -1284,19 +1284,19 @@
         <v>189225</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>167387</v>
+        <v>167350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>212548</v>
+        <v>213955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2090031391628685</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1848832189290945</v>
+        <v>0.1848420646615878</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2347639749698561</v>
+        <v>0.236318147883461</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>327522</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>306503</v>
+        <v>306161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>349313</v>
+        <v>348763</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.679191466692147</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6356027225347293</v>
+        <v>0.6348937651406406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7243799829818118</v>
+        <v>0.723238836560219</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>335</v>
@@ -1334,19 +1334,19 @@
         <v>246294</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>228529</v>
+        <v>230000</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>265020</v>
+        <v>263222</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.582058226921738</v>
+        <v>0.5820582269217379</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5400746782147435</v>
+        <v>0.5435521794664251</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.626313210179293</v>
+        <v>0.6220634002864701</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>648</v>
@@ -1355,19 +1355,19 @@
         <v>573816</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>546150</v>
+        <v>544518</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>600592</v>
+        <v>602316</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6337941563481567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6032355728705656</v>
+        <v>0.6014331622429875</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6633690634081542</v>
+        <v>0.6652727977389673</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>44780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32633</v>
+        <v>32514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60940</v>
+        <v>61730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09514802512986102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.069339588228088</v>
+        <v>0.06908562791381706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1294844729302741</v>
+        <v>0.1311639319885714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -1480,19 +1480,19 @@
         <v>27291</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20395</v>
+        <v>20073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35971</v>
+        <v>35841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1455558900771439</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.108775567197924</v>
+        <v>0.1070587427796058</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1918484568809903</v>
+        <v>0.1911573021293409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -1501,19 +1501,19 @@
         <v>72071</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>58820</v>
+        <v>56343</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>89800</v>
+        <v>90071</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1095089118675333</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08937499010300826</v>
+        <v>0.08561047075470568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1364478802350715</v>
+        <v>0.1368596114850659</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>41887</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30134</v>
+        <v>29958</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56171</v>
+        <v>55709</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08900247041999174</v>
+        <v>0.08900247041999172</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06402881000823624</v>
+        <v>0.06365441384652819</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1193520900265659</v>
+        <v>0.1183711819630672</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -1551,19 +1551,19 @@
         <v>20133</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14379</v>
+        <v>14341</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27026</v>
+        <v>27845</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1073756128521618</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07668958515262193</v>
+        <v>0.07648901496739242</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.14414263296385</v>
+        <v>0.1485074250141244</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>77</v>
@@ -1572,19 +1572,19 @@
         <v>62020</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>48001</v>
+        <v>49100</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>77933</v>
+        <v>79992</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09423686425435579</v>
+        <v>0.09423686425435582</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07293484715304621</v>
+        <v>0.07460561543696546</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1184161358807717</v>
+        <v>0.1215443207977154</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>88138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72251</v>
+        <v>73324</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104834</v>
+        <v>108667</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1872750174731528</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.153518027993324</v>
+        <v>0.1557979538103475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2227511031455938</v>
+        <v>0.2308964245549321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -1622,19 +1622,19 @@
         <v>42955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33536</v>
+        <v>33971</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52410</v>
+        <v>54363</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2290996418231116</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1788640701161915</v>
+        <v>0.1811794891823495</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2795236573610743</v>
+        <v>0.2899381064220556</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>168</v>
@@ -1643,19 +1643,19 @@
         <v>131093</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113383</v>
+        <v>112887</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>152743</v>
+        <v>152520</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1991905924288388</v>
+        <v>0.1991905924288389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1722803695466302</v>
+        <v>0.1715268580655168</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2320866092368946</v>
+        <v>0.2317476465198757</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>295828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>274361</v>
+        <v>273168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>317184</v>
+        <v>316253</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6285744869769945</v>
+        <v>0.6285744869769946</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5829613974730172</v>
+        <v>0.5804261566382125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6739514325992656</v>
+        <v>0.6719730405443501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -1693,19 +1693,19 @@
         <v>97118</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87117</v>
+        <v>86215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108598</v>
+        <v>108137</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5179688552475827</v>
+        <v>0.5179688552475826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4646337501218044</v>
+        <v>0.4598183878512025</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5791992664777392</v>
+        <v>0.5767374138235691</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>441</v>
@@ -1714,19 +1714,19 @@
         <v>392945</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>368738</v>
+        <v>367384</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>416836</v>
+        <v>416164</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5970636314492721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.560281114960149</v>
+        <v>0.558224447038068</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6333648177570278</v>
+        <v>0.6323430153412795</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>98012</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80744</v>
+        <v>80280</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121211</v>
+        <v>117764</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08659512068805143</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07133894113072711</v>
+        <v>0.07092822169409517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1070918830790728</v>
+        <v>0.1040463317315588</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>132</v>
@@ -1839,19 +1839,19 @@
         <v>94774</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79535</v>
+        <v>80658</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111439</v>
+        <v>113562</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1101000515219974</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09239735882770327</v>
+        <v>0.09370120655145028</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1294598853875454</v>
+        <v>0.1319269447421951</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>236</v>
@@ -1860,19 +1860,19 @@
         <v>192786</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>170091</v>
+        <v>167453</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>218404</v>
+        <v>220544</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0967489698441036</v>
+        <v>0.09674896984410362</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0853596018759664</v>
+        <v>0.08403554649868571</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1096051573550176</v>
+        <v>0.1106791182547724</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>77875</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63426</v>
+        <v>63274</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94964</v>
+        <v>97287</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06880330057546762</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0560381422001663</v>
+        <v>0.0559033986302793</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08390201200604108</v>
+        <v>0.08595421187528621</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -1910,19 +1910,19 @@
         <v>88946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75194</v>
+        <v>73983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>104899</v>
+        <v>104422</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1033303768564653</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08735456851490364</v>
+        <v>0.08594717832171725</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1218628642942978</v>
+        <v>0.1213082249183294</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>225</v>
@@ -1931,19 +1931,19 @@
         <v>166821</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>146705</v>
+        <v>145299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>190026</v>
+        <v>189151</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08371858481235812</v>
+        <v>0.08371858481235814</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0736233673974839</v>
+        <v>0.07291782201572478</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09536409329667594</v>
+        <v>0.09492508247990146</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>181178</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>158996</v>
+        <v>157313</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>206486</v>
+        <v>206109</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1600732501342673</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.14047542116523</v>
+        <v>0.1389887956068227</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1824333853415898</v>
+        <v>0.1821006333130359</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>282</v>
@@ -1981,19 +1981,19 @@
         <v>166809</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>148773</v>
+        <v>149713</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>185953</v>
+        <v>186274</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1937847750254214</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1728323538749075</v>
+        <v>0.173923915394876</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2160248968106334</v>
+        <v>0.2163973244122465</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>491</v>
@@ -2002,19 +2002,19 @@
         <v>347987</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>317510</v>
+        <v>316410</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>380005</v>
+        <v>378361</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1746362259193703</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1593413698159382</v>
+        <v>0.1587894406290104</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1907044906345959</v>
+        <v>0.1898793882133511</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>774779</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>742632</v>
+        <v>744137</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>804893</v>
+        <v>805670</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6845283286022136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6561264054427373</v>
+        <v>0.6574562331621416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7111351593436539</v>
+        <v>0.7118215200281887</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>683</v>
@@ -2052,19 +2052,19 @@
         <v>510267</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>484551</v>
+        <v>485206</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>534398</v>
+        <v>533580</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5927847965961158</v>
+        <v>0.5927847965961159</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5629098039147292</v>
+        <v>0.5636717365992848</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6208189297956372</v>
+        <v>0.6198684505218994</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1395</v>
@@ -2073,19 +2073,19 @@
         <v>1285045</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1242639</v>
+        <v>1242321</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1323898</v>
+        <v>1326338</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.644896219424168</v>
+        <v>0.6448962194241681</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6236145725303684</v>
+        <v>0.6234550553749078</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6643940610535674</v>
+        <v>0.6656188720659868</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>43047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31402</v>
+        <v>30717</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59521</v>
+        <v>56766</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07593676452609575</v>
+        <v>0.07593676452609574</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05539506834742398</v>
+        <v>0.05418655626200064</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1049973855778551</v>
+        <v>0.1001378847066733</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>198</v>
@@ -2198,19 +2198,19 @@
         <v>126934</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>109747</v>
+        <v>111159</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>145889</v>
+        <v>145052</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1529086104726116</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1322054522922557</v>
+        <v>0.1339056721156801</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1757432691680927</v>
+        <v>0.1747349675715705</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>244</v>
@@ -2219,19 +2219,19 @@
         <v>169981</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>149372</v>
+        <v>148262</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>195161</v>
+        <v>193194</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1216747853655544</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1069224747885088</v>
+        <v>0.1061282770771113</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.13969927381723</v>
+        <v>0.1382914632087472</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>34293</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23690</v>
+        <v>23971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51092</v>
+        <v>50273</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06049460573565398</v>
+        <v>0.06049460573565399</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04179034766430949</v>
+        <v>0.042286398258315</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09012760518432522</v>
+        <v>0.08868272590046697</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>167</v>
@@ -2269,19 +2269,19 @@
         <v>102360</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87462</v>
+        <v>86627</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>118654</v>
+        <v>117912</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1233062973516002</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1053601362267534</v>
+        <v>0.1043541722965468</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1429348698724819</v>
+        <v>0.1420403965744289</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>203</v>
@@ -2290,19 +2290,19 @@
         <v>136653</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118861</v>
+        <v>118317</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159292</v>
+        <v>157407</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09781841452267508</v>
+        <v>0.09781841452267506</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08508248704422666</v>
+        <v>0.08469310870701333</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1140238535973912</v>
+        <v>0.1126741922405126</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>94618</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77402</v>
+        <v>76155</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>113002</v>
+        <v>114785</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1669095673140069</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1365395816260474</v>
+        <v>0.1343401524173651</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1993401297644037</v>
+        <v>0.2024839688065812</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>312</v>
@@ -2340,19 +2340,19 @@
         <v>184684</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>165105</v>
+        <v>166056</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>204790</v>
+        <v>204370</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2224765990791866</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1988907751209704</v>
+        <v>0.2000367070756612</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2466977766119165</v>
+        <v>0.2461908918716144</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>411</v>
@@ -2361,19 +2361,19 @@
         <v>279302</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>254327</v>
+        <v>254545</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>306696</v>
+        <v>306609</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1999284721565469</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1820509340496071</v>
+        <v>0.1822068038658662</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2195373487765092</v>
+        <v>0.2194749884940686</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>394923</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>374096</v>
+        <v>371497</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>421242</v>
+        <v>419440</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6966590624242434</v>
+        <v>0.6966590624242432</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6599177870934828</v>
+        <v>0.6553333133261872</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7430860840868304</v>
+        <v>0.7399073743783841</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>612</v>
@@ -2411,19 +2411,19 @@
         <v>416150</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>392123</v>
+        <v>389855</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>440817</v>
+        <v>439050</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5013084930966016</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4723653743257883</v>
+        <v>0.4696333433050494</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5310230061023455</v>
+        <v>0.5288944911620598</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>977</v>
@@ -2432,19 +2432,19 @@
         <v>811073</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>775251</v>
+        <v>778115</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>845832</v>
+        <v>843906</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.5805783279552238</v>
+        <v>0.5805783279552236</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5549365225293663</v>
+        <v>0.5569866975088946</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6054594937989262</v>
+        <v>0.6040809080780963</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>7679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2768</v>
+        <v>2291</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20570</v>
+        <v>21286</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03237160981383142</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01166776243649686</v>
+        <v>0.009657021098952692</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08671062836254517</v>
+        <v>0.08972997809419116</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>163</v>
@@ -2557,19 +2557,19 @@
         <v>104856</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>88366</v>
+        <v>88328</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>121131</v>
+        <v>121553</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1243052739676874</v>
+        <v>0.1243052739676875</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1047557337659861</v>
+        <v>0.104711309626447</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1435986474961319</v>
+        <v>0.1440988972696791</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>169</v>
@@ -2578,19 +2578,19 @@
         <v>112536</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>95484</v>
+        <v>95638</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>132396</v>
+        <v>131847</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1041259114764768</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08834839732171791</v>
+        <v>0.08849120471816838</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1225016598416181</v>
+        <v>0.1219940174390996</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>12561</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5432</v>
+        <v>4995</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25922</v>
+        <v>25082</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05295055505408175</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02289818163894926</v>
+        <v>0.02105692600240832</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1092691071048275</v>
+        <v>0.1057304247814092</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>130</v>
@@ -2628,19 +2628,19 @@
         <v>87035</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72508</v>
+        <v>70618</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>103508</v>
+        <v>103741</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1031786618039068</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08595677624830626</v>
+        <v>0.08371649731941821</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1227066230428314</v>
+        <v>0.1229833573421536</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>137</v>
@@ -2649,19 +2649,19 @@
         <v>99597</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>83218</v>
+        <v>82295</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>121411</v>
+        <v>119508</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.09215363432696781</v>
+        <v>0.09215363432696778</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07699880272790302</v>
+        <v>0.07614484618635994</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1123378236750215</v>
+        <v>0.1105771759834608</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>15645</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7153</v>
+        <v>7096</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31116</v>
+        <v>30495</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06594856499709001</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03015320344556019</v>
+        <v>0.02991200046805108</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1311667394205812</v>
+        <v>0.1285465583264857</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>309</v>
@@ -2699,19 +2699,19 @@
         <v>177185</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>157823</v>
+        <v>158616</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>198823</v>
+        <v>198394</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2100490651731883</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1870960959509045</v>
+        <v>0.1880356763006425</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2357011595123698</v>
+        <v>0.2351919830302836</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>319</v>
@@ -2720,19 +2720,19 @@
         <v>192830</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>169738</v>
+        <v>170152</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>216955</v>
+        <v>220144</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1784191257491293</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1570529940213542</v>
+        <v>0.1574362877805337</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2007414455400933</v>
+        <v>0.2036921617526374</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>201342</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>180922</v>
+        <v>182770</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>214268</v>
+        <v>215828</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8487292701349969</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7626495321724296</v>
+        <v>0.7704415968184747</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9032140482616209</v>
+        <v>0.9097899508070667</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>556</v>
@@ -2770,19 +2770,19 @@
         <v>474463</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>446495</v>
+        <v>448358</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>504109</v>
+        <v>504910</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5624669990552174</v>
+        <v>0.5624669990552175</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5293105104816629</v>
+        <v>0.531518991515822</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5976116164672045</v>
+        <v>0.5985611101207338</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>645</v>
@@ -2791,19 +2791,19 @@
         <v>675806</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>641231</v>
+        <v>641944</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>710390</v>
+        <v>711398</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6253013284474263</v>
+        <v>0.6253013284474261</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5933108435202958</v>
+        <v>0.5939700704421594</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6573009779226699</v>
+        <v>0.6582341800091225</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>251386</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>223196</v>
+        <v>223814</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>286694</v>
+        <v>288996</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.0730896085364052</v>
+        <v>0.07308960853640521</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06489346675438229</v>
+        <v>0.06507292458448018</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08335519262526925</v>
+        <v>0.08402434433389427</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>649</v>
@@ -2916,19 +2916,19 @@
         <v>437305</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>406992</v>
+        <v>404830</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>472166</v>
+        <v>474310</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1203532358864278</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.112010570131104</v>
+        <v>0.1114154540378365</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1299474321352002</v>
+        <v>0.1305376151113932</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>915</v>
@@ -2937,19 +2937,19 @@
         <v>688692</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>642794</v>
+        <v>644047</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>732861</v>
+        <v>736537</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.09736989727259066</v>
+        <v>0.09736989727259064</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09088073895019953</v>
+        <v>0.09105780813423869</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1036146586786883</v>
+        <v>0.1041344959038687</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>224819</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>197839</v>
+        <v>195766</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>255440</v>
+        <v>254756</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06536537160002723</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05752095497744644</v>
+        <v>0.05691821742001672</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07426822652177527</v>
+        <v>0.07406923449480914</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>583</v>
@@ -2987,19 +2987,19 @@
         <v>387443</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>358062</v>
+        <v>353689</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>422319</v>
+        <v>420922</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1066303772206242</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0985443347155508</v>
+        <v>0.09734066284180996</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.116228678306206</v>
+        <v>0.1158443595525121</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>825</v>
@@ -3008,19 +3008,19 @@
         <v>612263</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>569215</v>
+        <v>570324</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>660081</v>
+        <v>654126</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0865640460849201</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08047777861867093</v>
+        <v>0.08063461178876687</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09332485542947663</v>
+        <v>0.09248290907173297</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>572692</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>527452</v>
+        <v>526062</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>614510</v>
+        <v>618900</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1665079204596355</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1533546064088339</v>
+        <v>0.1529504613520427</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1786663902373632</v>
+        <v>0.1799425769574038</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1260</v>
@@ -3058,19 +3058,19 @@
         <v>758234</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>714547</v>
+        <v>717277</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>798777</v>
+        <v>797963</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2086779203523221</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.196654505351262</v>
+        <v>0.1974056956382837</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2198359673370724</v>
+        <v>0.219611740328418</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1885</v>
@@ -3079,19 +3079,19 @@
         <v>1330926</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1270756</v>
+        <v>1270697</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1393821</v>
+        <v>1397931</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1881715089484452</v>
+        <v>0.1881715089484451</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1796644002352882</v>
+        <v>0.1796559879676318</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1970638266606265</v>
+        <v>0.1976449078822546</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2390530</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2334815</v>
+        <v>2328589</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2444648</v>
+        <v>2447340</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6950370994039321</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6788382335398666</v>
+        <v>0.6770280528135466</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7107716994309311</v>
+        <v>0.711554418623582</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2749</v>
@@ -3129,19 +3129,19 @@
         <v>2050532</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1996632</v>
+        <v>2000960</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2105587</v>
+        <v>2105352</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5643384665406258</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5495042025069881</v>
+        <v>0.5506955301442883</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5794903467503627</v>
+        <v>0.5794255757162118</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4913</v>
@@ -3150,19 +3150,19 @@
         <v>4441062</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4367573</v>
+        <v>4365707</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4526147</v>
+        <v>4520678</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6278945476940441</v>
+        <v>0.6278945476940442</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6175042866384602</v>
+        <v>0.6172404864800197</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6399241688674225</v>
+        <v>0.6391508906372513</v>
       </c>
     </row>
     <row r="38">
